--- a/exportFiles/item_names.xlsx
+++ b/exportFiles/item_names.xlsx
@@ -41,9 +41,6 @@
     <t>Bàn phím có dây LOGITECH K120 - THComputer Q11</t>
   </si>
   <si>
-    <t>Bàn phím có dây Logitech K120 kết nối cổng USB - Shopcongnghe24/7</t>
-  </si>
-  <si>
     <t>Logitech K120 wired keyboard</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>[Freeship] Bàn Phím Không Dây Bluetooth Cho Laptop Logitech K270 -MEI Tech Official- 0113010000123 MEI09 Hàng Chính Hãng Giá Tốt, Bảo Hành 12 Tháng, Thiết Kế Mỏng Nhẹ Đơn Giản, Bền Đẹp, Dễ Sử Dụng Phù Hợp Làm Văn Phòng, Gia Đình, Chơi Game</t>
   </si>
   <si>
-    <t>Bàn Phím Không Dây Logitech K400 PLUS tương thích PC, Laptop, TV - Chính hãng - Bảo hành 6 tháng</t>
-  </si>
-  <si>
     <t>Bàn Phím Không Dây Logitech K400 PLUS tương thích PC, Laptop, TV</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>Bàn Phím Không Dây Logitech K270</t>
   </si>
   <si>
-    <t>Logitech K380 Multi-Device Bluetooth Keyboard For PC, Notebooks, Phones &amp; Tablets</t>
-  </si>
-  <si>
     <t>Logitech K380 Multi-Device Wireless Bluetooth Keyboard Portable Ultra-Thin Keyboards For Windows Mac Chrome IOS Android</t>
   </si>
   <si>
@@ -173,9 +164,6 @@
     <t>Bàn phím Logitech Bluetooth Keyboard K380</t>
   </si>
   <si>
-    <t>Bàn phím Bluetooth Thụy Sĩ nhỏ xinh giảm ồn đa thiết bị Logitech K380 \ K400 Plus</t>
-  </si>
-  <si>
     <t>[Chính hãng] Bàn phím không dây Bluetooth Logitech K380 - giảm ồn, gọn nhẹ, đa thiết bị, Mac/ PC, hàng chính hãng check seri (0502)</t>
   </si>
   <si>
@@ -185,9 +173,6 @@
     <t>Bàn phím Logitech MK240 | Chính hãng.</t>
   </si>
   <si>
-    <t>[HCM]Bàn phím không dây Logitech K400 Plus (Đen) - Hãng Phân phối chính thức</t>
-  </si>
-  <si>
     <t>Bàn phím Logitech K480 Bluetooth Đen</t>
   </si>
   <si>
@@ -242,12 +227,6 @@
     <t>Bàn phím không dây Bluetooth Logitech Pebble Keys 2 K380S</t>
   </si>
   <si>
-    <t>[HCM]Bàn phím bluetooth Logitech K380 (Xám đậm) - Hãng Phân phối chính thức</t>
-  </si>
-  <si>
-    <t>[HCM]Bàn phím bluetooth Logitech K380 (Xanh) - Hãng Phân phối chính thức</t>
-  </si>
-  <si>
     <t>Bàn phím Bluetooth Logitech K380 Multi-Devic - Hàng Chính Hãng Bảo Hành 12 Tháng</t>
   </si>
   <si>
@@ -285,6 +264,27 @@
   </si>
   <si>
     <t>Bàn phím Không dây Logitech Pebble Keys 2 K380s Multi-Device</t>
+  </si>
+  <si>
+    <t>[HCM]Bàn Phím Không Dây Logitech K400 PLUS - Hàng Chính Hãng</t>
+  </si>
+  <si>
+    <t>[Hỏa Tốc - HCM] Bàn phím Bluetooth Logitech Pebble Keys 2 K380s Đa Thiết Bị | Hàng Chính Hãng | Bảo Hành 12 Tháng | Mimax Store</t>
+  </si>
+  <si>
+    <t>Bàn phím Không Dây Bluetooth Logitech K380s Yên Tĩnh Đa Thiết Bị 3 thiết bị Cùng Lúc Pin sử dụng tới 2 năm, tương thích Laptop, Windows, Mac, Chrome OS, Android, iPad OS, Apple TV - Bảo Hành 1 Năm</t>
+  </si>
+  <si>
+    <t>Bàn phím không dây Logitech K400 Plus - Bàn cảm ứng điều khiển PC-tới-TV, Phạm vi kết nối 10m, Cắm và sử dụng ngay, Công nghệ Unifying(2.4GHz),s - Bàn cảm ứng điều khiển PC, TV, Công nghệ Unifying (2.4GHz) - Bảo Hành Chính Hãng 12 Tháng,</t>
+  </si>
+  <si>
+    <t>Bàn Phím Không Dây LOGITECH K400</t>
+  </si>
+  <si>
+    <t>Bàn phím không dây Bluetooth Logitech Pebble Keys 2 K380s - Hàng chính hãng</t>
+  </si>
+  <si>
+    <t>[Hỏa Tốc 4h - HCM] Bàn phím Bluetooth Logitech Pebble Keys 2 K380s Đa Thiết Bị | Hàng Chính Hãng | Bảo Hành 12 Tháng | LSB Store</t>
   </si>
 </sst>
 </file>
@@ -445,12 +445,12 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -600,297 +600,297 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112">
@@ -900,42 +900,42 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121">
